--- a/figures/explanatory/figure4_reporter_assay/tables/reporter_assay_stats_and_data.xlsx
+++ b/figures/explanatory/figure4_reporter_assay/tables/reporter_assay_stats_and_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/badoiphan/Library/Caches/com.binarynights.ForkLift-3/FileCache/880BCFEF-07D6-4126-B6A5-20A44AE855AD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/badoiphan/Library/Caches/com.binarynights.ForkLift-3/FileCache/B80161EF-4CD7-41D9-AB8B-A6AC67CF709B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8316B82-1526-6041-A36A-AFB89D9EC462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200C241-C91A-964B-A7DE-E94EBA9B006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31280" windowHeight="17800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="31280" windowHeight="17800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model1_NeuN+" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="per_image_data" sheetId="5" r:id="rId5"/>
     <sheet name="per_condition_data" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">per_image_data!$A$1:$P$71</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -377,11 +380,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +727,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1636,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P71"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1711,28 +1715,28 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -1741,48 +1745,48 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>236.72189496652021</v>
+        <v>66.791521641526273</v>
       </c>
       <c r="L2">
-        <v>71.402954827329168</v>
+        <v>52.015741869111167</v>
       </c>
       <c r="M2">
-        <v>1766.212242714259</v>
+        <v>1108.23432576799</v>
       </c>
       <c r="N2">
-        <v>0.30163223742961232</v>
+        <v>0.7787776141451378</v>
       </c>
       <c r="O2">
-        <v>1.7077915673717299E-4</v>
+        <v>7.0271926797201142E-4</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
         <v>44</v>
@@ -1791,39 +1795,39 @@
         <v>45</v>
       </c>
       <c r="K3">
-        <v>94.958989921998523</v>
+        <v>12.078512521959061</v>
       </c>
       <c r="L3">
-        <v>51.320504976284283</v>
+        <v>20.177462979891931</v>
       </c>
       <c r="N3">
-        <v>0.54044914566214441</v>
+        <v>1.6705254842604811</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>52</v>
@@ -1832,22 +1836,22 @@
         <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>173.98365674129059</v>
+        <v>71.799401844136213</v>
       </c>
       <c r="L4">
-        <v>23.03105604583693</v>
+        <v>32.366919398790273</v>
       </c>
       <c r="M4">
-        <v>1180.6794867673109</v>
+        <v>1141.7864181969919</v>
       </c>
       <c r="N4">
-        <v>0.13237482460828789</v>
+        <v>0.45079650481006961</v>
       </c>
       <c r="O4">
-        <v>1.121174934365371E-4</v>
+        <v>3.9481683931914992E-4</v>
       </c>
       <c r="P4" t="s">
         <v>53</v>
@@ -1855,25 +1859,25 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -1882,16 +1886,16 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>26.341613458978141</v>
+        <v>11.970051224481979</v>
       </c>
       <c r="L5">
-        <v>9.9577056301183866</v>
+        <v>8.3588436557233781</v>
       </c>
       <c r="N5">
-        <v>0.37802185677143679</v>
+        <v>0.69831310651597645</v>
       </c>
       <c r="P5" t="s">
         <v>53</v>
@@ -1899,22 +1903,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>57</v>
@@ -1923,48 +1927,48 @@
         <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>130.52374535175471</v>
+        <v>52.191091635624367</v>
       </c>
       <c r="L6">
-        <v>47.390254924758402</v>
+        <v>57.240415407037602</v>
       </c>
       <c r="M6">
-        <v>1058.2377349428939</v>
+        <v>922.16565691590392</v>
       </c>
       <c r="N6">
-        <v>0.36307765148053439</v>
+        <v>1.096746851103737</v>
       </c>
       <c r="O6">
-        <v>3.430964890891246E-4</v>
+        <v>1.189316521254655E-3</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>57</v>
@@ -1973,45 +1977,45 @@
         <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>20.219299858104669</v>
+        <v>8.8793508847710871</v>
       </c>
       <c r="L7">
-        <v>11.981370665837201</v>
+        <v>8.0703922723000616</v>
       </c>
       <c r="N7">
-        <v>0.59257099651917988</v>
+        <v>0.90889439746564527</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
         <v>52</v>
@@ -2020,22 +2024,22 @@
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>241.015972466329</v>
+        <v>99.350313976653595</v>
       </c>
       <c r="L8">
-        <v>50.546139897590137</v>
+        <v>38.113531136170977</v>
       </c>
       <c r="M8">
-        <v>1241.8332113006859</v>
+        <v>1004.90976646652</v>
       </c>
       <c r="N8">
-        <v>0.20972112088816711</v>
+        <v>0.38362768682469689</v>
       </c>
       <c r="O8">
-        <v>1.6888026425747381E-4</v>
+        <v>3.8175336694518829E-4</v>
       </c>
       <c r="P8" t="s">
         <v>45</v>
@@ -2043,25 +2047,25 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
         <v>52</v>
@@ -2070,16 +2074,16 @@
         <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>15.01123542009919</v>
+        <v>16.2885048951687</v>
       </c>
       <c r="L9">
-        <v>20.617022667081649</v>
+        <v>8.9565443990534614</v>
       </c>
       <c r="N9">
-        <v>1.3734394332045869</v>
+        <v>0.54986903074879789</v>
       </c>
       <c r="P9" t="s">
         <v>45</v>
@@ -2087,122 +2091,122 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
         <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>200.80920194987121</v>
+        <v>106.19829605130229</v>
       </c>
       <c r="L10">
-        <v>19.056431782244299</v>
+        <v>39.170272726068262</v>
       </c>
       <c r="M10">
-        <v>1195.434223002987</v>
+        <v>1152.2111290661619</v>
       </c>
       <c r="N10">
-        <v>9.4898199869353786E-2</v>
+        <v>0.36884087770246199</v>
       </c>
       <c r="O10">
-        <v>7.9383874113094239E-5</v>
+        <v>3.2011570483735753E-4</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
         <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>29.28952482062526</v>
+        <v>10.067308655131169</v>
       </c>
       <c r="L11">
-        <v>5.0453649592958474</v>
+        <v>5.2044763459976817</v>
       </c>
       <c r="N11">
-        <v>0.17225834117127689</v>
+        <v>0.51696799256721226</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -2211,48 +2215,48 @@
         <v>46</v>
       </c>
       <c r="K12">
-        <v>198.35524965485291</v>
+        <v>134.95826487308261</v>
       </c>
       <c r="L12">
-        <v>38.207410988214257</v>
+        <v>37.529429762438653</v>
       </c>
       <c r="M12">
-        <v>1184.462858622454</v>
+        <v>1247.6223869756709</v>
       </c>
       <c r="N12">
-        <v>0.19262112323569389</v>
+        <v>0.27808174473591579</v>
       </c>
       <c r="O12">
-        <v>1.6262318555071859E-4</v>
+        <v>2.228893514887998E-4</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -2261,130 +2265,130 @@
         <v>46</v>
       </c>
       <c r="K13">
-        <v>15.56432795372155</v>
+        <v>10.564765119511071</v>
       </c>
       <c r="L13">
-        <v>8.2252653674341918</v>
+        <v>6.5971133324128246</v>
       </c>
       <c r="N13">
-        <v>0.5284690345700066</v>
+        <v>0.62444486534104182</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
         <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>166.87530823467969</v>
+        <v>159.20610188792651</v>
       </c>
       <c r="L14">
-        <v>19.931734826468521</v>
+        <v>53.977819810946258</v>
       </c>
       <c r="M14">
-        <v>1038.277940425402</v>
+        <v>1205.3646498232631</v>
       </c>
       <c r="N14">
-        <v>0.11944088695517591</v>
+        <v>0.33904366208868092</v>
       </c>
       <c r="O14">
-        <v>1.1503748881175179E-4</v>
+        <v>2.8127891600138882E-4</v>
       </c>
       <c r="P14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
       </c>
       <c r="D15">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
         <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>57.438105466280192</v>
+        <v>8.518698481118669</v>
       </c>
       <c r="L15">
-        <v>6.3512644396327502</v>
+        <v>12.65352248360251</v>
       </c>
       <c r="N15">
-        <v>0.11057579960330249</v>
+        <v>1.4853821286958919</v>
       </c>
       <c r="P15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>57</v>
@@ -2396,22 +2400,22 @@
         <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>150.94955575938121</v>
+        <v>153.43955133971531</v>
       </c>
       <c r="L16">
-        <v>54.642674616949478</v>
+        <v>61.201948547076761</v>
       </c>
       <c r="M16">
-        <v>1073.1515772622349</v>
+        <v>1414.07895945985</v>
       </c>
       <c r="N16">
-        <v>0.3619929475251441</v>
+        <v>0.3988668372183623</v>
       </c>
       <c r="O16">
-        <v>3.3731763079418897E-4</v>
+        <v>2.8206829226192669E-4</v>
       </c>
       <c r="P16" t="s">
         <v>46</v>
@@ -2419,22 +2423,22 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
@@ -2446,16 +2450,16 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>37.183628827427633</v>
+        <v>5.7941090563518376</v>
       </c>
       <c r="L17">
-        <v>41.373711642273527</v>
+        <v>13.340358415395579</v>
       </c>
       <c r="N17">
-        <v>1.112686226357638</v>
+        <v>2.3024002975524089</v>
       </c>
       <c r="P17" t="s">
         <v>46</v>
@@ -2463,28 +2467,28 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
         <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
         <v>58</v>
@@ -2493,48 +2497,48 @@
         <v>45</v>
       </c>
       <c r="K18">
-        <v>222.93796296708891</v>
+        <v>121.5552606274973</v>
       </c>
       <c r="L18">
-        <v>55.798525991449146</v>
+        <v>39.592524614516421</v>
       </c>
       <c r="M18">
-        <v>1281.933782724959</v>
+        <v>1028.802874574943</v>
       </c>
       <c r="N18">
-        <v>0.25028723349233428</v>
+        <v>0.32571625785778718</v>
       </c>
       <c r="O18">
-        <v>1.9524193594485669E-4</v>
+        <v>3.1659734426029801E-4</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
         <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
         <v>58</v>
@@ -2543,130 +2547,130 @@
         <v>45</v>
       </c>
       <c r="K19">
-        <v>5.757057527926893</v>
+        <v>12.30831391392927</v>
       </c>
       <c r="L19">
-        <v>21.950611429576959</v>
+        <v>20.326084229567869</v>
       </c>
       <c r="N19">
-        <v>3.8128178019929111</v>
+        <v>1.6514109383060931</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
         <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>227.6391791284816</v>
+        <v>130.52374535175471</v>
       </c>
       <c r="L20">
-        <v>66.869188659653972</v>
+        <v>47.390254924758402</v>
       </c>
       <c r="M20">
-        <v>1256.3097930405629</v>
+        <v>1058.2377349428939</v>
       </c>
       <c r="N20">
-        <v>0.29375078980544211</v>
+        <v>0.36307765148053439</v>
       </c>
       <c r="O20">
-        <v>2.3382034545356569E-4</v>
+        <v>3.430964890891246E-4</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
       </c>
       <c r="D21">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
         <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>9.4712152286317046</v>
+        <v>20.219299858104669</v>
       </c>
       <c r="L21">
-        <v>12.75164521863668</v>
+        <v>11.981370665837201</v>
       </c>
       <c r="N21">
-        <v>1.3463578760292729</v>
+        <v>0.59257099651917988</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
         <v>57</v>
@@ -2675,48 +2679,48 @@
         <v>52</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
       </c>
       <c r="K22">
-        <v>99.350313976653595</v>
+        <v>150.94955575938121</v>
       </c>
       <c r="L22">
-        <v>38.113531136170977</v>
+        <v>54.642674616949478</v>
       </c>
       <c r="M22">
-        <v>1004.90976646652</v>
+        <v>1073.1515772622349</v>
       </c>
       <c r="N22">
-        <v>0.38362768682469689</v>
+        <v>0.3619929475251441</v>
       </c>
       <c r="O22">
-        <v>3.8175336694518829E-4</v>
+        <v>3.3731763079418897E-4</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>47</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
         <v>57</v>
@@ -2725,45 +2729,45 @@
         <v>52</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
       </c>
       <c r="K23">
-        <v>16.2885048951687</v>
+        <v>37.183628827427633</v>
       </c>
       <c r="L23">
-        <v>8.9565443990534614</v>
+        <v>41.373711642273527</v>
       </c>
       <c r="N23">
-        <v>0.54986903074879789</v>
+        <v>1.112686226357638</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -2775,45 +2779,45 @@
         <v>46</v>
       </c>
       <c r="K24">
-        <v>216.09779718081259</v>
+        <v>181.70734926104939</v>
       </c>
       <c r="L24">
-        <v>20.112437788021129</v>
+        <v>44.492978699363547</v>
       </c>
       <c r="M24">
-        <v>1242.557248139686</v>
+        <v>1176.1119852170559</v>
       </c>
       <c r="N24">
-        <v>9.3070998642307848E-2</v>
+        <v>0.2448606447692043</v>
       </c>
       <c r="O24">
-        <v>7.4902785188892158E-5</v>
+        <v>2.0819500850849189E-4</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
       </c>
       <c r="D25">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
         <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
         <v>52</v>
@@ -2825,36 +2829,36 @@
         <v>46</v>
       </c>
       <c r="K25">
-        <v>20.91938495935014</v>
+        <v>12.419367720265731</v>
       </c>
       <c r="L25">
-        <v>6.3351424236024823</v>
+        <v>5.3428615338204031</v>
       </c>
       <c r="N25">
-        <v>0.30283597896939718</v>
+        <v>0.43020398897618628</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -2863,48 +2867,48 @@
         <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
       </c>
       <c r="K26">
-        <v>206.35998130153561</v>
+        <v>236.72189496652021</v>
       </c>
       <c r="L26">
-        <v>39.492870305086157</v>
+        <v>71.402954827329168</v>
       </c>
       <c r="M26">
-        <v>1232.977771950355</v>
+        <v>1766.212242714259</v>
       </c>
       <c r="N26">
-        <v>0.19137853209716429</v>
+        <v>0.30163223742961232</v>
       </c>
       <c r="O26">
-        <v>1.552165306228004E-4</v>
+        <v>1.7077915673717299E-4</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
       </c>
       <c r="D27">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
@@ -2913,92 +2917,92 @@
         <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27">
-        <v>2.236473665207225</v>
+        <v>94.958989921998523</v>
       </c>
       <c r="L27">
-        <v>1.7338435161103221</v>
+        <v>51.320504976284283</v>
       </c>
       <c r="N27">
-        <v>0.77525773859253966</v>
+        <v>0.54044914566214441</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D28">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="D28" s="2">
+        <v>51</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28">
-        <v>157.35915747345811</v>
-      </c>
-      <c r="L28">
-        <v>30.337832478907281</v>
-      </c>
-      <c r="M28">
-        <v>1238.2460888720241</v>
-      </c>
-      <c r="N28">
-        <v>0.19279356197636219</v>
-      </c>
-      <c r="O28">
-        <v>1.556989064685735E-4</v>
-      </c>
-      <c r="P28" t="s">
-        <v>45</v>
+      <c r="I28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="2">
+        <v>118.140773106202</v>
+      </c>
+      <c r="L28" s="2">
+        <v>33.761662555153613</v>
+      </c>
+      <c r="M28" s="2">
+        <v>927.09291036500201</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.28577485712577599</v>
+      </c>
+      <c r="O28" s="2">
+        <v>3.0824834698958573E-4</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>47</v>
       </c>
       <c r="D29">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3007,36 +3011,36 @@
         <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>9.6236875746659472</v>
+        <v>8.554749746101356</v>
       </c>
       <c r="L29">
-        <v>4.9089576471862966</v>
+        <v>9.7146660427224081</v>
       </c>
       <c r="N29">
-        <v>0.51009112765765308</v>
+        <v>1.1355874024426791</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
         <v>40</v>
@@ -3057,19 +3061,19 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>118.140773106202</v>
+        <v>201.97771735763229</v>
       </c>
       <c r="L30">
-        <v>33.761662555153613</v>
+        <v>42.54495166316643</v>
       </c>
       <c r="M30">
-        <v>927.09291036500201</v>
+        <v>1285.053554951774</v>
       </c>
       <c r="N30">
-        <v>0.28577485712577599</v>
+        <v>0.2106418085111543</v>
       </c>
       <c r="O30">
-        <v>3.0824834698958573E-4</v>
+        <v>1.6391675483054809E-4</v>
       </c>
       <c r="P30" t="s">
         <v>46</v>
@@ -3077,16 +3081,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>47</v>
       </c>
       <c r="D31">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
         <v>40</v>
@@ -3107,110 +3111,110 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>8.554749746101356</v>
+        <v>11.06288240089796</v>
       </c>
       <c r="L31">
-        <v>9.7146660427224081</v>
+        <v>13.259397430782791</v>
       </c>
       <c r="N31">
-        <v>1.1355874024426791</v>
+        <v>1.1985481676734211</v>
       </c>
       <c r="P31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D32">
-        <v>72</v>
-      </c>
-      <c r="E32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32">
-        <v>69.242101965053678</v>
-      </c>
-      <c r="L32">
-        <v>12.03010359018716</v>
-      </c>
-      <c r="M32">
-        <v>458.42316640358922</v>
-      </c>
-      <c r="N32">
-        <v>0.17373972263665141</v>
-      </c>
-      <c r="O32">
-        <v>3.7899420310642291E-4</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="D32" s="2">
         <v>53</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="2">
+        <v>198.35524965485291</v>
+      </c>
+      <c r="L32" s="2">
+        <v>38.207410988214257</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1184.462858622454</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.19262112323569389</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1.6262318555071859E-4</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
       <c r="D33">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
         <v>46</v>
       </c>
       <c r="K33">
-        <v>80.152359313689203</v>
+        <v>15.56432795372155</v>
       </c>
       <c r="L33">
-        <v>14.86587188538199</v>
+        <v>8.2252653674341918</v>
       </c>
       <c r="N33">
-        <v>0.18547017221541789</v>
+        <v>0.5284690345700066</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -3309,22 +3313,22 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
       </c>
       <c r="D36">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -3336,22 +3340,22 @@
         <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>155.90486326250169</v>
+        <v>222.93796296708891</v>
       </c>
       <c r="L36">
-        <v>45.217920950178033</v>
+        <v>55.798525991449146</v>
       </c>
       <c r="M36">
-        <v>1061.3396859354909</v>
+        <v>1281.933782724959</v>
       </c>
       <c r="N36">
-        <v>0.29003534594070529</v>
+        <v>0.25028723349233428</v>
       </c>
       <c r="O36">
-        <v>2.7327287369364778E-4</v>
+        <v>1.9524193594485669E-4</v>
       </c>
       <c r="P36" t="s">
         <v>45</v>
@@ -3359,22 +3363,22 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -3386,45 +3390,45 @@
         <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>57.505057716377877</v>
+        <v>5.757057527926893</v>
       </c>
       <c r="L37">
-        <v>33.598413242603108</v>
+        <v>21.950611429576959</v>
       </c>
       <c r="N37">
-        <v>0.58426883785274464</v>
+        <v>3.8128178019929111</v>
       </c>
       <c r="P37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>82</v>
+      <c r="A38" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
         <v>69</v>
-      </c>
-      <c r="E38" t="s">
-        <v>62</v>
       </c>
       <c r="F38" t="s">
         <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
         <v>58</v>
@@ -3433,48 +3437,48 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>150.4691198729771</v>
+        <v>227.6391791284816</v>
       </c>
       <c r="L38">
-        <v>23.646103730581089</v>
+        <v>66.869188659653972</v>
       </c>
       <c r="M38">
-        <v>1033.633106312684</v>
+        <v>1256.3097930405629</v>
       </c>
       <c r="N38">
-        <v>0.1571492127457291</v>
+        <v>0.29375078980544211</v>
       </c>
       <c r="O38">
-        <v>1.5203577728497211E-4</v>
+        <v>2.3382034545356569E-4</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
       </c>
       <c r="D39">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
         <v>69</v>
-      </c>
-      <c r="E39" t="s">
-        <v>62</v>
       </c>
       <c r="F39" t="s">
         <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
         <v>58</v>
@@ -3483,63 +3487,63 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>41.640027857500307</v>
+        <v>9.4712152286317046</v>
       </c>
       <c r="L39">
-        <v>11.09436713547902</v>
+        <v>12.75164521863668</v>
       </c>
       <c r="N39">
-        <v>0.26643515161531461</v>
+        <v>1.3463578760292729</v>
       </c>
       <c r="P39" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
       </c>
       <c r="D40">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s">
         <v>43</v>
       </c>
-      <c r="E40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>106.19829605130229</v>
+        <v>206.35998130153561</v>
       </c>
       <c r="L40">
-        <v>39.170272726068262</v>
+        <v>39.492870305086157</v>
       </c>
       <c r="M40">
-        <v>1152.2111290661619</v>
+        <v>1232.977771950355</v>
       </c>
       <c r="N40">
-        <v>0.36884087770246199</v>
+        <v>0.19137853209716429</v>
       </c>
       <c r="O40">
-        <v>3.2011570483735753E-4</v>
+        <v>1.552165306228004E-4</v>
       </c>
       <c r="P40" t="s">
         <v>45</v>
@@ -3547,72 +3551,72 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
       </c>
       <c r="D41">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s">
         <v>43</v>
       </c>
-      <c r="E41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>10.067308655131169</v>
+        <v>2.236473665207225</v>
       </c>
       <c r="L41">
-        <v>5.2044763459976817</v>
+        <v>1.7338435161103221</v>
       </c>
       <c r="N41">
-        <v>0.51696799256721226</v>
+        <v>0.77525773859253966</v>
       </c>
       <c r="P41" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>84</v>
+      <c r="A42" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
       </c>
       <c r="D42">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
         <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I42" t="s">
         <v>58</v>
@@ -3621,48 +3625,48 @@
         <v>46</v>
       </c>
       <c r="K42">
-        <v>222.95924392471139</v>
+        <v>157.35915747345811</v>
       </c>
       <c r="L42">
-        <v>20.33284590247721</v>
+        <v>30.337832478907281</v>
       </c>
       <c r="M42">
-        <v>1236.288677881261</v>
+        <v>1238.2460888720241</v>
       </c>
       <c r="N42">
-        <v>9.1195348282321884E-2</v>
+        <v>0.19279356197636219</v>
       </c>
       <c r="O42">
-        <v>7.3765415726860471E-5</v>
+        <v>1.556989064685735E-4</v>
       </c>
       <c r="P42" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>47</v>
       </c>
       <c r="D43">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
         <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
         <v>58</v>
@@ -3671,218 +3675,218 @@
         <v>46</v>
       </c>
       <c r="K43">
-        <v>29.118762296391299</v>
+        <v>9.6236875746659472</v>
       </c>
       <c r="L43">
-        <v>3.6078643587385462</v>
+        <v>4.9089576471862966</v>
       </c>
       <c r="N43">
-        <v>0.123901707154142</v>
+        <v>0.51009112765765308</v>
       </c>
       <c r="P43" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
       </c>
       <c r="D44">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
         <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>178.2495847346454</v>
+        <v>155.90486326250169</v>
       </c>
       <c r="L44">
-        <v>53.966276125726068</v>
+        <v>45.217920950178033</v>
       </c>
       <c r="M44">
-        <v>1131.073556987275</v>
+        <v>1061.3396859354909</v>
       </c>
       <c r="N44">
-        <v>0.30275681262351323</v>
+        <v>0.29003534594070529</v>
       </c>
       <c r="O44">
-        <v>2.6767208087680481E-4</v>
+        <v>2.7327287369364778E-4</v>
       </c>
       <c r="P44" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
         <v>58</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>11.27016344945647</v>
+        <v>57.505057716377877</v>
       </c>
       <c r="L45">
-        <v>28.381878283087971</v>
+        <v>33.598413242603108</v>
       </c>
       <c r="N45">
-        <v>2.5183200235180929</v>
+        <v>0.58426883785274464</v>
       </c>
       <c r="P45" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
       </c>
       <c r="D46">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s">
         <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>159.20610188792651</v>
+        <v>138.13022001628201</v>
       </c>
       <c r="L46">
-        <v>53.977819810946258</v>
+        <v>36.988560518919193</v>
       </c>
       <c r="M46">
-        <v>1205.3646498232631</v>
+        <v>937.66476686662372</v>
       </c>
       <c r="N46">
-        <v>0.33904366208868092</v>
+        <v>0.26778036344660272</v>
       </c>
       <c r="O46">
-        <v>2.8127891600138882E-4</v>
+        <v>2.8558219622716472E-4</v>
       </c>
       <c r="P46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s">
         <v>58</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
-        <v>8.518698481118669</v>
+        <v>35.535670234007242</v>
       </c>
       <c r="L47">
-        <v>12.65352248360251</v>
+        <v>10.11367319779238</v>
       </c>
       <c r="N47">
-        <v>1.4853821286958919</v>
+        <v>0.28460623174383542</v>
       </c>
       <c r="P47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
         <v>60</v>
@@ -3903,19 +3907,19 @@
         <v>45</v>
       </c>
       <c r="K48">
-        <v>227.7341637287528</v>
+        <v>241.015972466329</v>
       </c>
       <c r="L48">
-        <v>18.214271198825529</v>
+        <v>50.546139897590137</v>
       </c>
       <c r="M48">
-        <v>998.67057399414682</v>
+        <v>1241.8332113006859</v>
       </c>
       <c r="N48">
-        <v>7.9980407421523222E-2</v>
+        <v>0.20972112088816711</v>
       </c>
       <c r="O48">
-        <v>8.0086876998532638E-5</v>
+        <v>1.6888026425747381E-4</v>
       </c>
       <c r="P48" t="s">
         <v>45</v>
@@ -3923,16 +3927,16 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
         <v>47</v>
       </c>
       <c r="D49">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
         <v>60</v>
@@ -3953,13 +3957,13 @@
         <v>45</v>
       </c>
       <c r="K49">
-        <v>99.359310735707908</v>
+        <v>15.01123542009919</v>
       </c>
       <c r="L49">
-        <v>7.2341286906666413</v>
+        <v>20.617022667081649</v>
       </c>
       <c r="N49">
-        <v>7.2807758398296021E-2</v>
+        <v>1.3734394332045869</v>
       </c>
       <c r="P49" t="s">
         <v>45</v>
@@ -3967,49 +3971,49 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
         <v>39</v>
       </c>
       <c r="D50">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
         <v>60</v>
       </c>
-      <c r="E50" t="s">
-        <v>77</v>
-      </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50">
-        <v>138.13022001628201</v>
+        <v>227.7341637287528</v>
       </c>
       <c r="L50">
-        <v>36.988560518919193</v>
+        <v>18.214271198825529</v>
       </c>
       <c r="M50">
-        <v>937.66476686662372</v>
+        <v>998.67057399414682</v>
       </c>
       <c r="N50">
-        <v>0.26778036344660272</v>
+        <v>7.9980407421523222E-2</v>
       </c>
       <c r="O50">
-        <v>2.8558219622716472E-4</v>
+        <v>8.0086876998532638E-5</v>
       </c>
       <c r="P50" t="s">
         <v>45</v>
@@ -4017,43 +4021,43 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
         <v>47</v>
       </c>
       <c r="D51">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
         <v>60</v>
       </c>
-      <c r="E51" t="s">
-        <v>77</v>
-      </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>35.535670234007242</v>
+        <v>99.359310735707908</v>
       </c>
       <c r="L51">
-        <v>10.11367319779238</v>
+        <v>7.2341286906666413</v>
       </c>
       <c r="N51">
-        <v>0.28460623174383542</v>
+        <v>7.2807758398296021E-2</v>
       </c>
       <c r="P51" t="s">
         <v>45</v>
@@ -4061,119 +4065,119 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
       </c>
       <c r="D52">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
         <v>52</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s">
         <v>45</v>
       </c>
       <c r="K52">
-        <v>153.43955133971531</v>
+        <v>121.88257722685719</v>
       </c>
       <c r="L52">
-        <v>61.201948547076761</v>
+        <v>25.998367940108089</v>
       </c>
       <c r="M52">
-        <v>1414.07895945985</v>
+        <v>855.62769878794131</v>
       </c>
       <c r="N52">
-        <v>0.3988668372183623</v>
+        <v>0.2133066803446233</v>
       </c>
       <c r="O52">
-        <v>2.8206829226192669E-4</v>
+        <v>2.4929847484693132E-4</v>
       </c>
       <c r="P52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
         <v>47</v>
       </c>
       <c r="D53">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s">
         <v>52</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>5.7941090563518376</v>
+        <v>89.972798532367975</v>
       </c>
       <c r="L53">
-        <v>13.340358415395579</v>
+        <v>30.37280885320002</v>
       </c>
       <c r="N53">
-        <v>2.3024002975524089</v>
+        <v>0.33757768290683221</v>
       </c>
       <c r="P53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B54">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>39</v>
       </c>
       <c r="D54">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
         <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
         <v>52</v>
@@ -4185,45 +4189,45 @@
         <v>46</v>
       </c>
       <c r="K54">
-        <v>134.95826487308261</v>
+        <v>173.98365674129059</v>
       </c>
       <c r="L54">
-        <v>37.529429762438653</v>
+        <v>23.03105604583693</v>
       </c>
       <c r="M54">
-        <v>1247.6223869756709</v>
+        <v>1180.6794867673109</v>
       </c>
       <c r="N54">
-        <v>0.27808174473591579</v>
+        <v>0.13237482460828789</v>
       </c>
       <c r="O54">
-        <v>2.228893514887998E-4</v>
+        <v>1.121174934365371E-4</v>
       </c>
       <c r="P54" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B55">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
         <v>47</v>
       </c>
       <c r="D55">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
         <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s">
         <v>52</v>
@@ -4235,36 +4239,36 @@
         <v>46</v>
       </c>
       <c r="K55">
-        <v>10.564765119511071</v>
+        <v>26.341613458978141</v>
       </c>
       <c r="L55">
-        <v>6.5971133324128246</v>
+        <v>9.9577056301183866</v>
       </c>
       <c r="N55">
-        <v>0.62444486534104182</v>
+        <v>0.37802185677143679</v>
       </c>
       <c r="P55" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>39</v>
       </c>
       <c r="D56">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s">
         <v>51</v>
@@ -4276,45 +4280,45 @@
         <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>121.88257722685719</v>
+        <v>166.87530823467969</v>
       </c>
       <c r="L56">
-        <v>25.998367940108089</v>
+        <v>19.931734826468521</v>
       </c>
       <c r="M56">
-        <v>855.62769878794131</v>
+        <v>1038.277940425402</v>
       </c>
       <c r="N56">
-        <v>0.2133066803446233</v>
+        <v>0.11944088695517591</v>
       </c>
       <c r="O56">
-        <v>2.4929847484693132E-4</v>
+        <v>1.1503748881175179E-4</v>
       </c>
       <c r="P56" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B57">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>47</v>
       </c>
       <c r="D57">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
         <v>51</v>
@@ -4326,42 +4330,42 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>89.972798532367975</v>
+        <v>57.438105466280192</v>
       </c>
       <c r="L57">
-        <v>30.37280885320002</v>
+        <v>6.3512644396327502</v>
       </c>
       <c r="N57">
-        <v>0.33757768290683221</v>
+        <v>0.11057579960330249</v>
       </c>
       <c r="P57" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B58">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
         <v>39</v>
       </c>
       <c r="D58">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s">
         <v>52</v>
@@ -4370,22 +4374,22 @@
         <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
-        <v>66.791521641526273</v>
+        <v>206.15969496046239</v>
       </c>
       <c r="L58">
-        <v>52.015741869111167</v>
+        <v>37.127486169398573</v>
       </c>
       <c r="M58">
-        <v>1108.23432576799</v>
+        <v>1296.454547169596</v>
       </c>
       <c r="N58">
-        <v>0.7787776141451378</v>
+        <v>0.18009090562788679</v>
       </c>
       <c r="O58">
-        <v>7.0271926797201142E-4</v>
+        <v>1.3891031198977181E-4</v>
       </c>
       <c r="P58" t="s">
         <v>53</v>
@@ -4393,25 +4397,25 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B59">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
         <v>47</v>
       </c>
       <c r="D59">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s">
         <v>52</v>
@@ -4420,16 +4424,16 @@
         <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>12.078512521959061</v>
+        <v>19.68941217766735</v>
       </c>
       <c r="L59">
-        <v>20.177462979891931</v>
+        <v>15.87925807640592</v>
       </c>
       <c r="N59">
-        <v>1.6705254842604811</v>
+        <v>0.80648715833258422</v>
       </c>
       <c r="P59" t="s">
         <v>53</v>
@@ -4437,25 +4441,25 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>39</v>
       </c>
       <c r="D60">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G60" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s">
         <v>52</v>
@@ -4464,48 +4468,48 @@
         <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>181.70734926104939</v>
+        <v>200.80920194987121</v>
       </c>
       <c r="L60">
-        <v>44.492978699363547</v>
+        <v>19.056431782244299</v>
       </c>
       <c r="M60">
-        <v>1176.1119852170559</v>
+        <v>1195.434223002987</v>
       </c>
       <c r="N60">
-        <v>0.2448606447692043</v>
+        <v>9.4898199869353786E-2</v>
       </c>
       <c r="O60">
-        <v>2.0819500850849189E-4</v>
+        <v>7.9383874113094239E-5</v>
       </c>
       <c r="P60" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>47</v>
       </c>
       <c r="D61">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s">
         <v>52</v>
@@ -4514,66 +4518,66 @@
         <v>58</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61">
-        <v>12.419367720265731</v>
+        <v>29.28952482062526</v>
       </c>
       <c r="L61">
-        <v>5.3428615338204031</v>
+        <v>5.0453649592958474</v>
       </c>
       <c r="N61">
-        <v>0.43020398897618628</v>
+        <v>0.17225834117127689</v>
       </c>
       <c r="P61" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B62">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>39</v>
       </c>
       <c r="D62">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E62" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G62" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s">
         <v>52</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J62" t="s">
         <v>45</v>
       </c>
       <c r="K62">
-        <v>71.799401844136213</v>
+        <v>150.4691198729771</v>
       </c>
       <c r="L62">
-        <v>32.366919398790273</v>
+        <v>23.646103730581089</v>
       </c>
       <c r="M62">
-        <v>1141.7864181969919</v>
+        <v>1033.633106312684</v>
       </c>
       <c r="N62">
-        <v>0.45079650481006961</v>
+        <v>0.1571492127457291</v>
       </c>
       <c r="O62">
-        <v>3.9481683931914992E-4</v>
+        <v>1.5203577728497211E-4</v>
       </c>
       <c r="P62" t="s">
         <v>53</v>
@@ -4581,43 +4585,43 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
         <v>47</v>
       </c>
       <c r="D63">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s">
         <v>52</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J63" t="s">
         <v>45</v>
       </c>
       <c r="K63">
-        <v>11.970051224481979</v>
+        <v>41.640027857500307</v>
       </c>
       <c r="L63">
-        <v>8.3588436557233781</v>
+        <v>11.09436713547902</v>
       </c>
       <c r="N63">
-        <v>0.69831310651597645</v>
+        <v>0.26643515161531461</v>
       </c>
       <c r="P63" t="s">
         <v>53</v>
@@ -4625,25 +4629,25 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B64">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
       </c>
       <c r="D64">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F64" t="s">
         <v>63</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s">
         <v>52</v>
@@ -4655,45 +4659,45 @@
         <v>45</v>
       </c>
       <c r="K64">
-        <v>121.5552606274973</v>
+        <v>178.2495847346454</v>
       </c>
       <c r="L64">
-        <v>39.592524614516421</v>
+        <v>53.966276125726068</v>
       </c>
       <c r="M64">
-        <v>1028.802874574943</v>
+        <v>1131.073556987275</v>
       </c>
       <c r="N64">
-        <v>0.32571625785778718</v>
+        <v>0.30275681262351323</v>
       </c>
       <c r="O64">
-        <v>3.1659734426029801E-4</v>
+        <v>2.6767208087680481E-4</v>
       </c>
       <c r="P64" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B65">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
         <v>47</v>
       </c>
       <c r="D65">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F65" t="s">
         <v>63</v>
       </c>
       <c r="G65" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s">
         <v>52</v>
@@ -4705,130 +4709,130 @@
         <v>45</v>
       </c>
       <c r="K65">
-        <v>12.30831391392927</v>
+        <v>11.27016344945647</v>
       </c>
       <c r="L65">
-        <v>20.326084229567869</v>
+        <v>28.381878283087971</v>
       </c>
       <c r="N65">
-        <v>1.6514109383060931</v>
+        <v>2.5183200235180929</v>
       </c>
       <c r="P65" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
         <v>39</v>
       </c>
       <c r="D66">
+        <v>73</v>
+      </c>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" t="s">
         <v>52</v>
       </c>
-      <c r="E66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" t="s">
-        <v>43</v>
-      </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>201.97771735763229</v>
+        <v>216.09779718081259</v>
       </c>
       <c r="L66">
-        <v>42.54495166316643</v>
+        <v>20.112437788021129</v>
       </c>
       <c r="M66">
-        <v>1285.053554951774</v>
+        <v>1242.557248139686</v>
       </c>
       <c r="N66">
-        <v>0.2106418085111543</v>
+        <v>9.3070998642307848E-2</v>
       </c>
       <c r="O66">
-        <v>1.6391675483054809E-4</v>
+        <v>7.4902785188892158E-5</v>
       </c>
       <c r="P66" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>47</v>
       </c>
       <c r="D67">
+        <v>73</v>
+      </c>
+      <c r="E67" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H67" t="s">
         <v>52</v>
       </c>
-      <c r="E67" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
-      <c r="H67" t="s">
-        <v>43</v>
-      </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>11.06288240089796</v>
+        <v>20.91938495935014</v>
       </c>
       <c r="L67">
-        <v>13.259397430782791</v>
+        <v>6.3351424236024823</v>
       </c>
       <c r="N67">
-        <v>1.1985481676734211</v>
+        <v>0.30283597896939718</v>
       </c>
       <c r="P67" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B68">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
         <v>39</v>
       </c>
       <c r="D68">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G68" t="s">
         <v>51</v>
@@ -4837,25 +4841,25 @@
         <v>52</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J68" t="s">
         <v>46</v>
       </c>
       <c r="K68">
-        <v>206.15969496046239</v>
+        <v>69.242101965053678</v>
       </c>
       <c r="L68">
-        <v>37.127486169398573</v>
+        <v>12.03010359018716</v>
       </c>
       <c r="M68">
-        <v>1296.454547169596</v>
+        <v>458.42316640358922</v>
       </c>
       <c r="N68">
-        <v>0.18009090562788679</v>
+        <v>0.17373972263665141</v>
       </c>
       <c r="O68">
-        <v>1.3891031198977181E-4</v>
+        <v>3.7899420310642291E-4</v>
       </c>
       <c r="P68" t="s">
         <v>53</v>
@@ -4863,22 +4867,22 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>47</v>
       </c>
       <c r="D69">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s">
         <v>51</v>
@@ -4887,19 +4891,19 @@
         <v>52</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J69" t="s">
         <v>46</v>
       </c>
       <c r="K69">
-        <v>19.68941217766735</v>
+        <v>80.152359313689203</v>
       </c>
       <c r="L69">
-        <v>15.87925807640592</v>
+        <v>14.86587188538199</v>
       </c>
       <c r="N69">
-        <v>0.80648715833258422</v>
+        <v>0.18547017221541789</v>
       </c>
       <c r="P69" t="s">
         <v>53</v>
@@ -4907,49 +4911,49 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B70">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
         <v>39</v>
       </c>
       <c r="D70">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s">
         <v>52</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>52.191091635624367</v>
+        <v>222.95924392471139</v>
       </c>
       <c r="L70">
-        <v>57.240415407037602</v>
+        <v>20.33284590247721</v>
       </c>
       <c r="M70">
-        <v>922.16565691590392</v>
+        <v>1236.288677881261</v>
       </c>
       <c r="N70">
-        <v>1.096746851103737</v>
+        <v>9.1195348282321884E-2</v>
       </c>
       <c r="O70">
-        <v>1.189316521254655E-3</v>
+        <v>7.3765415726860471E-5</v>
       </c>
       <c r="P70" t="s">
         <v>53</v>
@@ -4957,49 +4961,64 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B71">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
         <v>47</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G71" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H71" t="s">
         <v>52</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>8.8793508847710871</v>
+        <v>29.118762296391299</v>
       </c>
       <c r="L71">
-        <v>8.0703922723000616</v>
+        <v>3.6078643587385462</v>
       </c>
       <c r="N71">
-        <v>0.90889439746564527</v>
+        <v>0.123901707154142</v>
       </c>
       <c r="P71" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P71" xr:uid="{00000000-0001-0000-0400-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P71">
+      <sortCondition ref="E1:E71"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5009,10 +5028,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
